--- a/predict/case2.xlsx
+++ b/predict/case2.xlsx
@@ -355,13 +355,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.09</v>
+        <v>0.09</v>
       </c>
       <c r="B1" t="n">
         <v>0.35</v>
       </c>
       <c r="C1" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="D1" t="n">
         <v>-0.66</v>
@@ -369,13 +369,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.32</v>
+        <v>-0.14</v>
       </c>
       <c r="D2" t="n">
         <v>0.48</v>
@@ -383,13 +383,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="B3" t="n">
         <v>0.41</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
       <c r="D3" t="n">
         <v>0.35</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.41</v>
+        <v>-0.45</v>
       </c>
       <c r="B4" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.15</v>
+        <v>-0.35</v>
       </c>
       <c r="D4" t="n">
         <v>-0.66</v>
@@ -411,13 +411,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.41</v>
+        <v>-0.33</v>
       </c>
       <c r="B5" t="n">
         <v>-0.44</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="D5" t="n">
         <v>0.05</v>
@@ -425,13 +425,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.09</v>
+        <v>-0.23</v>
       </c>
       <c r="B6" t="n">
         <v>-0.41</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="D6" t="n">
         <v>-0.51</v>
@@ -439,13 +439,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.72</v>
       </c>
       <c r="B7" t="n">
         <v>-0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="D7" t="n">
         <v>-0.08</v>
@@ -453,13 +453,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="B8" t="n">
         <v>0.24</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="D8" t="n">
         <v>-0.17</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.44</v>
+        <v>-0.23</v>
       </c>
       <c r="B9" t="n">
         <v>-0.41</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
         <v>-0.23</v>
@@ -481,13 +481,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B10" t="n">
         <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="D10" t="n">
         <v>0.57</v>
@@ -495,13 +495,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.51</v>
+        <v>-0.46</v>
       </c>
       <c r="B11" t="n">
         <v>-0.76</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="D11" t="n">
         <v>-0.08</v>
@@ -509,13 +509,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.52</v>
+        <v>-0.31</v>
       </c>
       <c r="B12" t="n">
         <v>-0.65</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.26</v>
+        <v>-0.16</v>
       </c>
       <c r="D12" t="n">
         <v>-0.51</v>
@@ -523,13 +523,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5</v>
+        <v>-0.44</v>
       </c>
       <c r="B13" t="n">
         <v>-0.91</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.21</v>
+        <v>-0.18</v>
       </c>
       <c r="D13" t="n">
         <v>-0.63</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.08</v>
+        <v>-0.13</v>
       </c>
       <c r="B14" t="n">
         <v>-0.29</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.52</v>
+        <v>-0.57</v>
       </c>
       <c r="B15" t="n">
         <v>-0.41</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.19</v>
+        <v>-0.16</v>
       </c>
       <c r="D15" t="n">
         <v>0.02</v>
@@ -565,13 +565,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.38</v>
       </c>
       <c r="B16" t="n">
         <v>-0.18</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="D16" t="n">
         <v>0.11</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04</v>
+        <v>-0.12</v>
       </c>
       <c r="B17" t="n">
         <v>0.06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="D17" t="n">
         <v>-0.02</v>
@@ -593,13 +593,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01</v>
+        <v>-0.18</v>
       </c>
       <c r="B18" t="n">
         <v>0.15</v>
       </c>
       <c r="C18" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D18" t="n">
         <v>0.32</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="B19" t="n">
         <v>-0.18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D19" t="n">
         <v>0.14</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.31</v>
+        <v>-0.46</v>
       </c>
       <c r="B20" t="n">
         <v>-0.03</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.17</v>
+        <v>-0.45</v>
       </c>
       <c r="D20" t="n">
         <v>-0.08</v>
@@ -635,13 +635,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="B21" t="n">
         <v>-0.21</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04</v>
+        <v>0.14</v>
       </c>
       <c r="D21" t="n">
         <v>0.48</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.02</v>
+        <v>-0.36</v>
       </c>
       <c r="B22" t="n">
         <v>0.09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="D22" t="n">
         <v>0.29</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="B23" t="n">
         <v>-0.41</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13</v>
+        <v>-0.03</v>
       </c>
       <c r="D23" t="n">
         <v>0.02</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.08</v>
+        <v>-0.33</v>
       </c>
       <c r="B24" t="n">
         <v>-0.32</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1</v>
+        <v>-0.16</v>
       </c>
       <c r="D24" t="n">
         <v>0.11</v>
@@ -691,13 +691,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.21</v>
+        <v>0.04</v>
       </c>
       <c r="B25" t="n">
         <v>-0.03</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="D25" t="n">
         <v>0.6</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="B26" t="n">
         <v>0.47</v>
       </c>
       <c r="C26" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="D26" t="n">
         <v>0.85</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.28</v>
+        <v>-0.21</v>
       </c>
       <c r="B27" t="n">
         <v>-0.21</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="n">
         <v>0.54</v>
@@ -733,13 +733,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.21</v>
+        <v>-0.11</v>
       </c>
       <c r="B28" t="n">
         <v>0.09</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="D28" t="n">
         <v>0.2</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="B29" t="n">
         <v>-0.12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D29" t="n">
         <v>0.08</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.32</v>
+        <v>-0.18</v>
       </c>
       <c r="B30" t="n">
         <v>-0.29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="D30" t="n">
         <v>0.42</v>
@@ -775,13 +775,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="B31" t="n">
         <v>0.62</v>
       </c>
       <c r="C31" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="D31" t="n">
         <v>0.6899999999999999</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.26</v>
+        <v>-0.03</v>
       </c>
       <c r="B32" t="n">
         <v>0.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="D32" t="n">
         <v>0.2</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.28</v>
+        <v>-0.41</v>
       </c>
       <c r="B33" t="n">
         <v>-0.38</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03</v>
+        <v>-0.34</v>
       </c>
       <c r="D33" t="n">
         <v>-0.23</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.28</v>
+        <v>-0.05</v>
       </c>
       <c r="B34" t="n">
         <v>-0.35</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-0.08</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.32</v>
+        <v>-0</v>
       </c>
       <c r="B35" t="n">
         <v>-0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="D35" t="n">
         <v>0.26</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.61</v>
+        <v>-0.33</v>
       </c>
       <c r="B36" t="n">
         <v>-0.79</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.11</v>
+        <v>-0.21</v>
       </c>
       <c r="D36" t="n">
         <v>-0.11</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.34</v>
+        <v>-0.18</v>
       </c>
       <c r="B37" t="n">
         <v>-0.24</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="D37" t="n">
         <v>0.2</v>
@@ -873,13 +873,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="B38" t="n">
         <v>0.47</v>
       </c>
       <c r="C38" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="D38" t="n">
         <v>0.54</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="B39" t="n">
         <v>-0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.16</v>
+        <v>-0.43</v>
       </c>
       <c r="D39" t="n">
         <v>-0.45</v>
@@ -901,13 +901,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="B40" t="n">
         <v>0.35</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="D40" t="n">
         <v>0.63</v>
@@ -915,13 +915,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.5</v>
+        <v>-0.36</v>
       </c>
       <c r="B41" t="n">
         <v>-0.03</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.29</v>
+        <v>-0.25</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -929,13 +929,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="B42" t="n">
         <v>-0.21</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.12</v>
+        <v>-0.26</v>
       </c>
       <c r="D42" t="n">
         <v>-0.45</v>
@@ -943,13 +943,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="B43" t="n">
         <v>-0.06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="D43" t="n">
         <v>-0.02</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.14</v>
+        <v>-0.11</v>
       </c>
       <c r="B44" t="n">
         <v>-0.24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.18</v>
+        <v>-0.18</v>
       </c>
       <c r="D44" t="n">
         <v>-0.29</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.32</v>
+        <v>-0.2</v>
       </c>
       <c r="B45" t="n">
         <v>-0.35</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="D45" t="n">
         <v>0.23</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.3</v>
+        <v>-0.22</v>
       </c>
       <c r="B46" t="n">
         <v>-0.29</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="D46" t="n">
         <v>0.26</v>
@@ -999,13 +999,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.34</v>
+        <v>-0.58</v>
       </c>
       <c r="B47" t="n">
         <v>-0.15</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.02</v>
+        <v>-0.18</v>
       </c>
       <c r="D47" t="n">
         <v>-0.05</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="B48" t="n">
         <v>0.09</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.09</v>
+        <v>0.16</v>
       </c>
       <c r="D48" t="n">
         <v>-0.23</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.23</v>
+        <v>-0.45</v>
       </c>
       <c r="B49" t="n">
         <v>-0.62</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1</v>
+        <v>-0.43</v>
       </c>
       <c r="D49" t="n">
         <v>-0.63</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="B50" t="n">
         <v>0.41</v>
       </c>
       <c r="C50" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="D50" t="n">
         <v>0.66</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="B51" t="n">
         <v>0.62</v>
       </c>
       <c r="C51" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="D51" t="n">
         <v>0.6</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05</v>
+        <v>-0.17</v>
       </c>
       <c r="B52" t="n">
         <v>0.32</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="D52" t="n">
         <v>0.08</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="B53" t="n">
         <v>0.35</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="D53" t="n">
         <v>0.42</v>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="B54" t="n">
         <v>-0.44</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="D54" t="n">
         <v>-0.26</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.09</v>
+        <v>0.06</v>
       </c>
       <c r="B55" t="n">
         <v>-0</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.13</v>
+        <v>0.01</v>
       </c>
       <c r="D55" t="n">
         <v>-0.6899999999999999</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.19</v>
+        <v>-0.16</v>
       </c>
       <c r="B56" t="n">
         <v>0.44</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D56" t="n">
         <v>0.6899999999999999</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.4</v>
+        <v>-0.48</v>
       </c>
       <c r="B57" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.09</v>
+        <v>-0.52</v>
       </c>
       <c r="D57" t="n">
         <v>0.17</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="B58" t="n">
         <v>0.09</v>
       </c>
       <c r="C58" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="D58" t="n">
         <v>0.14</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.19</v>
+        <v>-0.51</v>
       </c>
       <c r="B59" t="n">
         <v>-0.38</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.16</v>
+        <v>-0.24</v>
       </c>
       <c r="D59" t="n">
         <v>-0.14</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="B60" t="n">
         <v>0.06</v>
       </c>
       <c r="C60" t="n">
-        <v>-0</v>
+        <v>-0.2</v>
       </c>
       <c r="D60" t="n">
         <v>0.08</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.33</v>
+        <v>-0.04</v>
       </c>
       <c r="B61" t="n">
         <v>0.21</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="D61" t="n">
         <v>0.63</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="B62" t="n">
         <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.04</v>
+        <v>0.13</v>
       </c>
       <c r="D62" t="n">
         <v>0.29</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="B63" t="n">
         <v>-0.35</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="D63" t="n">
         <v>-0.45</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="B64" t="n">
         <v>0.62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="D64" t="n">
         <v>0.72</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="B65" t="n">
         <v>-0.62</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.15</v>
+        <v>-0.27</v>
       </c>
       <c r="D65" t="n">
         <v>-0.32</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="B66" t="n">
         <v>0.65</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="D66" t="n">
         <v>0.35</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.49</v>
+        <v>-0.08</v>
       </c>
       <c r="B67" t="n">
         <v>-0.35</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.16</v>
+        <v>0.16</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.59</v>
+        <v>0.22</v>
       </c>
       <c r="B68" t="n">
         <v>0.79</v>
       </c>
       <c r="C68" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="D68" t="n">
         <v>0.38</v>
@@ -1307,13 +1307,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.08</v>
+        <v>-0.24</v>
       </c>
       <c r="B69" t="n">
         <v>-0.21</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="D69" t="n">
         <v>-0.51</v>
@@ -1321,13 +1321,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.35</v>
+        <v>-0.01</v>
       </c>
       <c r="B70" t="n">
         <v>0.24</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03</v>
+        <v>-0.24</v>
       </c>
       <c r="D70" t="n">
         <v>-0.05</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="B71" t="n">
         <v>0.76</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D71" t="n">
         <v>-0.54</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.26</v>
+        <v>-0.16</v>
       </c>
       <c r="B72" t="n">
         <v>-0.03</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.14</v>
+        <v>0.22</v>
       </c>
       <c r="D72" t="n">
         <v>-0.17</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.26</v>
+        <v>0.14</v>
       </c>
       <c r="B73" t="n">
         <v>-0.32</v>
       </c>
       <c r="C73" t="n">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
       <c r="D73" t="n">
         <v>0.02</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.27</v>
+        <v>-0.23</v>
       </c>
       <c r="B74" t="n">
         <v>-0.21</v>
       </c>
       <c r="C74" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D74" t="n">
         <v>-0.02</v>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.46</v>
+        <v>-0.22</v>
       </c>
       <c r="B75" t="n">
         <v>-0.18</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="D75" t="n">
         <v>0.38</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.31</v>
+        <v>-0.43</v>
       </c>
       <c r="B76" t="n">
         <v>-0.76</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04</v>
+        <v>-0.48</v>
       </c>
       <c r="D76" t="n">
         <v>-0.32</v>
@@ -1419,13 +1419,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="B77" t="n">
         <v>-0.06</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="D77" t="n">
         <v>0.32</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.38</v>
+        <v>-0.17</v>
       </c>
       <c r="B78" t="n">
         <v>-0.41</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D78" t="n">
         <v>0.08</v>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="B79" t="n">
         <v>-0.26</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.17</v>
+        <v>-0.06</v>
       </c>
       <c r="D79" t="n">
         <v>-0.45</v>
@@ -1461,13 +1461,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="B80" t="n">
         <v>0.12</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>-0.05</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.71</v>
+        <v>-0.61</v>
       </c>
       <c r="B81" t="n">
         <v>-0.71</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="D81" t="n">
         <v>-0.23</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="B82" t="n">
         <v>0.32</v>
       </c>
       <c r="C82" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="D82" t="n">
         <v>0.2</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.18</v>
+        <v>-0.29</v>
       </c>
       <c r="B83" t="n">
         <v>-0.41</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="D83" t="n">
         <v>-0.38</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B84" t="n">
         <v>0.32</v>
       </c>
       <c r="C84" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D84" t="n">
         <v>0.51</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="B85" t="n">
         <v>-0.41</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="D85" t="n">
         <v>-0.23</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="B86" t="n">
         <v>0.21</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="D86" t="n">
         <v>0.66</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.26</v>
+        <v>0.2</v>
       </c>
       <c r="B87" t="n">
         <v>-0.12</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.11</v>
+        <v>0.01</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.14</v>
+        <v>-0.22</v>
       </c>
       <c r="B88" t="n">
         <v>-0.44</v>
       </c>
       <c r="C88" t="n">
-        <v>0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="D88" t="n">
         <v>-0.42</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="B89" t="n">
         <v>0.21</v>
       </c>
       <c r="C89" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="D89" t="n">
         <v>-0.2</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.11</v>
+        <v>0.22</v>
       </c>
       <c r="B90" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="D90" t="n">
         <v>-0.29</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="B91" t="n">
         <v>-0.35</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D91" t="n">
         <v>0.3</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="B92" t="n">
         <v>0.68</v>
       </c>
       <c r="C92" t="n">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="D92" t="n">
         <v>0.78</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="B93" t="n">
         <v>0.47</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="D93" t="n">
         <v>0.32</v>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="B94" t="n">
         <v>-0.24</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.04</v>
+        <v>0.04</v>
       </c>
       <c r="D94" t="n">
         <v>-0.54</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="B95" t="n">
         <v>0.26</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="D95" t="n">
         <v>0.6</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.09</v>
+        <v>-0.09</v>
       </c>
       <c r="B96" t="n">
         <v>0.24</v>
       </c>
       <c r="C96" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="D96" t="n">
         <v>0.17</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.54</v>
+        <v>0.19</v>
       </c>
       <c r="B97" t="n">
         <v>0.65</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="B98" t="n">
         <v>0.29</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D98" t="n">
         <v>0.38</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="B99" t="n">
         <v>0.15</v>
       </c>
       <c r="C99" t="n">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="D99" t="n">
         <v>0.42</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.02</v>
+        <v>-0.16</v>
       </c>
       <c r="B100" t="n">
         <v>0.06</v>
       </c>
       <c r="C100" t="n">
-        <v>0.24</v>
+        <v>-0.05</v>
       </c>
       <c r="D100" t="n">
         <v>0.6</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.4</v>
+        <v>-0.44</v>
       </c>
       <c r="B101" t="n">
         <v>-0.71</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.03</v>
+        <v>-0.12</v>
       </c>
       <c r="D101" t="n">
         <v>-0.23</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="B102" t="n">
         <v>0.21</v>
       </c>
       <c r="C102" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="D102" t="n">
         <v>0.45</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.15</v>
+        <v>0.12</v>
       </c>
       <c r="B103" t="n">
         <v>0.18</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.03</v>
+        <v>0.13</v>
       </c>
       <c r="D103" t="n">
         <v>0.38</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.16</v>
+        <v>-0.25</v>
       </c>
       <c r="B104" t="n">
         <v>0.09</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.05</v>
+        <v>-0.22</v>
       </c>
       <c r="D104" t="n">
         <v>0.26</v>
@@ -1811,13 +1811,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B105" t="n">
         <v>0.24</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D105" t="n">
         <v>0.63</v>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.21</v>
+        <v>-0.45</v>
       </c>
       <c r="B106" t="n">
         <v>-0.03</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="D106" t="n">
         <v>0.17</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.41</v>
+        <v>-0.6</v>
       </c>
       <c r="B107" t="n">
         <v>-0.85</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.08</v>
+        <v>-0.25</v>
       </c>
       <c r="D107" t="n">
         <v>-0.38</v>
@@ -1853,13 +1853,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="B108" t="n">
         <v>0.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="D108" t="n">
         <v>0.38</v>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="B109" t="n">
         <v>0.24</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="D109" t="n">
         <v>0.32</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.31</v>
+        <v>-0.49</v>
       </c>
       <c r="B110" t="n">
         <v>-0.62</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D110" t="n">
         <v>-0.26</v>
@@ -1895,13 +1895,13 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="B111" t="n">
         <v>-0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.24</v>
+        <v>-0.12</v>
       </c>
       <c r="D111" t="n">
         <v>-0.42</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="B112" t="n">
         <v>0.12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="D112" t="n">
         <v>0.26</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.54</v>
+        <v>-0.39</v>
       </c>
       <c r="B113" t="n">
         <v>-0.35</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.23</v>
+        <v>-0.19</v>
       </c>
       <c r="D113" t="n">
         <v>-0.14</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.23</v>
+        <v>0.3</v>
       </c>
       <c r="B114" t="n">
         <v>-0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.04</v>
+        <v>0.13</v>
       </c>
       <c r="D114" t="n">
         <v>-0.02</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="B115" t="n">
         <v>0.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.18</v>
+        <v>-0.25</v>
       </c>
       <c r="B116" t="n">
         <v>-0.44</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.08</v>
+        <v>-0.19</v>
       </c>
       <c r="D116" t="n">
         <v>-0.66</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="B117" t="n">
         <v>0.06</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="D117" t="n">
         <v>-0.11</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="B118" t="n">
         <v>0.41</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="D118" t="n">
         <v>0.57</v>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="B119" t="n">
         <v>-0.26</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.18</v>
+        <v>-0.54</v>
       </c>
       <c r="D119" t="n">
         <v>-0.11</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="B120" t="n">
         <v>0.68</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="B121" t="n">
         <v>-0.68</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="D121" t="n">
         <v>-0.48</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.08</v>
+        <v>0.17</v>
       </c>
       <c r="B122" t="n">
         <v>-0</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.02</v>
+        <v>0.19</v>
       </c>
       <c r="D122" t="n">
         <v>0.17</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="B123" t="n">
         <v>0.06</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="D123" t="n">
         <v>0.51</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="B124" t="n">
         <v>-0.44</v>
       </c>
       <c r="C124" t="n">
-        <v>-0</v>
+        <v>-0.14</v>
       </c>
       <c r="D124" t="n">
         <v>0.08</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.21</v>
+        <v>0.04</v>
       </c>
       <c r="B125" t="n">
         <v>-0.05</v>
       </c>
       <c r="C125" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="D125" t="n">
         <v>0.27</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.48</v>
+        <v>-0.16</v>
       </c>
       <c r="B126" t="n">
         <v>-0.15</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.16</v>
+        <v>0.16</v>
       </c>
       <c r="D126" t="n">
         <v>0.05</v>
@@ -2119,13 +2119,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
       <c r="B127" t="n">
         <v>-0.35</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.05</v>
+        <v>-0.34</v>
       </c>
       <c r="D127" t="n">
         <v>-0.17</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="B128" t="n">
         <v>0.32</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="D128" t="n">
         <v>0.45</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="B129" t="n">
         <v>0.85</v>
       </c>
       <c r="C129" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="D129" t="n">
         <v>-0.05</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="B130" t="n">
         <v>0.62</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="D130" t="n">
         <v>0.48</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="B131" t="n">
         <v>0.44</v>
       </c>
       <c r="C131" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="D131" t="n">
         <v>0.32</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.51</v>
+        <v>-0.34</v>
       </c>
       <c r="B132" t="n">
         <v>-0.53</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.19</v>
+        <v>-0.06</v>
       </c>
       <c r="D132" t="n">
         <v>-0.26</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.16</v>
+        <v>-0.03</v>
       </c>
       <c r="B133" t="n">
         <v>-0.12</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D133" t="n">
         <v>0.29</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="B134" t="n">
         <v>0.44</v>
       </c>
       <c r="C134" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="D134" t="n">
         <v>-0.57</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.29</v>
+        <v>-0.32</v>
       </c>
       <c r="B135" t="n">
         <v>-0.29</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="D135" t="n">
         <v>0.17</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="B136" t="n">
         <v>-0.06</v>
       </c>
       <c r="C136" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D136" t="n">
         <v>0.45</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.44</v>
+        <v>-0.16</v>
       </c>
       <c r="B137" t="n">
         <v>0.12</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.3</v>
+        <v>0.08</v>
       </c>
       <c r="D137" t="n">
         <v>-0.54</v>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.24</v>
+        <v>-0.47</v>
       </c>
       <c r="B138" t="n">
         <v>-0.53</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.03</v>
+        <v>-0.32</v>
       </c>
       <c r="D138" t="n">
         <v>-0.51</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B139" t="n">
         <v>0.5</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D139" t="n">
         <v>0.32</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.64</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="B140" t="n">
         <v>-0.76</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.18</v>
+        <v>-0.29</v>
       </c>
       <c r="D140" t="n">
         <v>-0.42</v>
@@ -2315,13 +2315,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.29</v>
+        <v>0.04</v>
       </c>
       <c r="B141" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="D141" t="n">
         <v>-0.17</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="B142" t="n">
         <v>0.29</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.11</v>
+        <v>-0.16</v>
       </c>
       <c r="D142" t="n">
         <v>-0.02</v>
@@ -2343,13 +2343,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="D143" t="n">
         <v>0.91</v>
@@ -2357,13 +2357,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.57</v>
+        <v>-0.18</v>
       </c>
       <c r="B144" t="n">
         <v>-0.5</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.37</v>
+        <v>0.14</v>
       </c>
       <c r="D144" t="n">
         <v>-0.17</v>
@@ -2371,13 +2371,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="B145" t="n">
         <v>0.38</v>
       </c>
       <c r="C145" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="D145" t="n">
         <v>0.82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.65</v>
+        <v>-0.6</v>
       </c>
       <c r="B146" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.18</v>
+        <v>-0.24</v>
       </c>
       <c r="D146" t="n">
         <v>-0.32</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="B147" t="n">
         <v>0.15</v>
       </c>
       <c r="C147" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D147" t="n">
         <v>0.51</v>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.05</v>
+        <v>-0.11</v>
       </c>
       <c r="B148" t="n">
         <v>-0.15</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D148" t="n">
         <v>0.17</v>
@@ -2427,13 +2427,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="B149" t="n">
         <v>0.59</v>
       </c>
       <c r="C149" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="B150" t="n">
         <v>0.35</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.12</v>
+        <v>0.12</v>
       </c>
       <c r="D150" t="n">
         <v>-0.29</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.3</v>
+        <v>-0.04</v>
       </c>
       <c r="B151" t="n">
         <v>-0.09</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.11</v>
+        <v>0.18</v>
       </c>
       <c r="D151" t="n">
         <v>0.32</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.23</v>
+        <v>-0.41</v>
       </c>
       <c r="B152" t="n">
         <v>-0.26</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01</v>
+        <v>-0.33</v>
       </c>
       <c r="D152" t="n">
         <v>-0.08</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.3</v>
+        <v>-0.02</v>
       </c>
       <c r="B153" t="n">
         <v>-0.29</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="D153" t="n">
         <v>0.26</v>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.43</v>
+        <v>-0.55</v>
       </c>
       <c r="B154" t="n">
         <v>-0.62</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.08</v>
+        <v>-0.31</v>
       </c>
       <c r="D154" t="n">
         <v>-0.54</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.34</v>
+        <v>-0.23</v>
       </c>
       <c r="B155" t="n">
         <v>-0.35</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.13</v>
+        <v>-0.23</v>
       </c>
       <c r="D155" t="n">
         <v>0.05</v>
@@ -2525,13 +2525,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.78</v>
+        <v>-0.6</v>
       </c>
       <c r="B156" t="n">
         <v>-0.53</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="D156" t="n">
         <v>-0.14</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="B157" t="n">
         <v>0.76</v>
       </c>
       <c r="C157" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="D157" t="n">
         <v>0.63</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.43</v>
+        <v>-0.47</v>
       </c>
       <c r="B158" t="n">
         <v>-0.62</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.46</v>
       </c>
       <c r="D158" t="n">
         <v>-0.23</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="B159" t="n">
         <v>0.32</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="D159" t="n">
         <v>0.29</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="B160" t="n">
         <v>0.32</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D160" t="n">
         <v>-0.17</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="B161" t="n">
         <v>-0.68</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
       <c r="D161" t="n">
         <v>-0.08</v>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.29</v>
+        <v>-0.24</v>
       </c>
       <c r="B162" t="n">
         <v>-0.59</v>
       </c>
       <c r="C162" t="n">
-        <v>0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="D162" t="n">
         <v>-0.17</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="B163" t="n">
         <v>0.41</v>
       </c>
       <c r="C163" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="D163" t="n">
         <v>0.54</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.09</v>
+        <v>0.06</v>
       </c>
       <c r="B164" t="n">
         <v>0.15</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="D164" t="n">
         <v>-0.11</v>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="B165" t="n">
         <v>0.68</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.2</v>
+        <v>-0.04</v>
       </c>
       <c r="D165" t="n">
         <v>-0.42</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.03</v>
+        <v>0.22</v>
       </c>
       <c r="B166" t="n">
         <v>0.12</v>
       </c>
       <c r="C166" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="D166" t="n">
         <v>0.08</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="B167" t="n">
         <v>0.09</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="D167" t="n">
         <v>0.45</v>
@@ -2693,13 +2693,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.22</v>
+        <v>-0.06</v>
       </c>
       <c r="B168" t="n">
         <v>-0.06</v>
       </c>
       <c r="C168" t="n">
-        <v>0.23</v>
+        <v>-0.05</v>
       </c>
       <c r="D168" t="n">
         <v>-0.02</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.63</v>
+        <v>-0.33</v>
       </c>
       <c r="B169" t="n">
         <v>-0.74</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.25</v>
+        <v>-0.05</v>
       </c>
       <c r="D169" t="n">
         <v>-0.35</v>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="B170" t="n">
         <v>-0.03</v>
       </c>
       <c r="C170" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="D170" t="n">
         <v>0.54</v>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="B171" t="n">
         <v>-0.26</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D171" t="n">
         <v>0.05</v>
@@ -2749,13 +2749,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.24</v>
+        <v>0.04</v>
       </c>
       <c r="B172" t="n">
         <v>0.12</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.05</v>
+        <v>0.28</v>
       </c>
       <c r="D172" t="n">
         <v>0.66</v>
@@ -2763,13 +2763,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="B173" t="n">
         <v>0.44</v>
       </c>
       <c r="C173" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="D173" t="n">
         <v>0.05</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.44</v>
+        <v>-0.18</v>
       </c>
       <c r="B174" t="n">
         <v>-0.24</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.27</v>
+        <v>0.16</v>
       </c>
       <c r="D174" t="n">
         <v>-0.35</v>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.15</v>
+        <v>0.03</v>
       </c>
       <c r="B175" t="n">
         <v>-0.12</v>
       </c>
       <c r="C175" t="n">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D175" t="n">
         <v>0.26</v>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="B176" t="n">
         <v>0.24</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.04</v>
+        <v>-0.14</v>
       </c>
       <c r="D176" t="n">
         <v>-0.08</v>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="B177" t="n">
         <v>0.5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="D177" t="n">
         <v>0.75</v>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B178" t="n">
         <v>0.65</v>
       </c>
       <c r="C178" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="D178" t="n">
         <v>-0.05</v>
@@ -2847,13 +2847,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="B179" t="n">
         <v>-0.44</v>
       </c>
       <c r="C179" t="n">
-        <v>0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="D179" t="n">
         <v>-0.2</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B180" t="n">
         <v>0.09</v>
       </c>
       <c r="C180" t="n">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="D180" t="n">
         <v>0.29</v>
@@ -2875,13 +2875,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.03</v>
+        <v>-0.12</v>
       </c>
       <c r="B181" t="n">
         <v>0.18</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="D181" t="n">
         <v>0.2</v>
@@ -2889,13 +2889,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.48</v>
+        <v>-0.36</v>
       </c>
       <c r="B182" t="n">
         <v>-0.62</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="D182" t="n">
         <v>-0.45</v>
@@ -2903,13 +2903,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.36</v>
+        <v>-0.09</v>
       </c>
       <c r="B183" t="n">
         <v>-0.5</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.17</v>
+        <v>0.14</v>
       </c>
       <c r="D183" t="n">
         <v>-0.26</v>
@@ -2917,13 +2917,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-0.05</v>
+        <v>-0.13</v>
       </c>
       <c r="B184" t="n">
         <v>-0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D184" t="n">
         <v>0.2</v>
@@ -2931,13 +2931,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.78</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="B185" t="n">
         <v>-0.82</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.24</v>
+        <v>-0.31</v>
       </c>
       <c r="D185" t="n">
         <v>-0.63</v>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="B186" t="n">
         <v>0.29</v>
       </c>
       <c r="C186" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="D186" t="n">
         <v>0.6899999999999999</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="B187" t="n">
         <v>0.35</v>
       </c>
       <c r="C187" t="n">
-        <v>0.09</v>
+        <v>-0</v>
       </c>
       <c r="D187" t="n">
         <v>0.14</v>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="B188" t="n">
         <v>0.59</v>
       </c>
       <c r="C188" t="n">
-        <v>0.13</v>
+        <v>-0.02</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -2987,13 +2987,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.17</v>
+        <v>-0.44</v>
       </c>
       <c r="B189" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="D189" t="n">
         <v>-0.38</v>
@@ -3001,13 +3001,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="B190" t="n">
         <v>-0.47</v>
       </c>
       <c r="C190" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="D190" t="n">
         <v>0.05</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.47</v>
+        <v>-0.44</v>
       </c>
       <c r="B191" t="n">
         <v>-0.62</v>
       </c>
       <c r="C191" t="n">
-        <v>0.03</v>
+        <v>-0.32</v>
       </c>
       <c r="D191" t="n">
         <v>-0.08</v>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.34</v>
+        <v>-0.43</v>
       </c>
       <c r="B192" t="n">
         <v>-0.29</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01</v>
+        <v>-0.26</v>
       </c>
       <c r="D192" t="n">
         <v>-0.05</v>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="B193" t="n">
         <v>0.03</v>
       </c>
       <c r="C193" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="D193" t="n">
         <v>0.23</v>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.35</v>
+        <v>-0.41</v>
       </c>
       <c r="B194" t="n">
         <v>-0.44</v>
       </c>
       <c r="C194" t="n">
-        <v>0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="D194" t="n">
         <v>-0.48</v>
@@ -3071,13 +3071,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="B195" t="n">
         <v>0.53</v>
       </c>
       <c r="C195" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="D195" t="n">
         <v>0.66</v>
@@ -3085,13 +3085,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="B196" t="n">
         <v>0.29</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="D196" t="n">
         <v>0.38</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="B197" t="n">
         <v>-0.21</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>0.08</v>
@@ -3113,13 +3113,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.3</v>
+        <v>-0.14</v>
       </c>
       <c r="B198" t="n">
         <v>-0.29</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D198" t="n">
         <v>0.02</v>
@@ -3127,13 +3127,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="B199" t="n">
         <v>-0.09</v>
       </c>
       <c r="C199" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D199" t="n">
         <v>-0.75</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="B200" t="n">
         <v>0.26</v>
@@ -3155,13 +3155,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.11</v>
+        <v>-0.29</v>
       </c>
       <c r="B201" t="n">
         <v>-0.38</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.04</v>
+        <v>-0.28</v>
       </c>
       <c r="D201" t="n">
         <v>-0.63</v>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.01</v>
+        <v>-0.16</v>
       </c>
       <c r="B202" t="n">
         <v>-0.26</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.08</v>
+        <v>0.03</v>
       </c>
       <c r="D202" t="n">
         <v>0.23</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="B203" t="n">
         <v>0.59</v>
       </c>
       <c r="C203" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="D203" t="n">
         <v>0.48</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.26</v>
+        <v>-0.19</v>
       </c>
       <c r="B204" t="n">
         <v>-0.38</v>
       </c>
       <c r="C204" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="D204" t="n">
         <v>-0.08</v>
@@ -3211,13 +3211,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="B205" t="n">
         <v>0.09</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D205" t="n">
         <v>0.35</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="B206" t="n">
         <v>0.65</v>
       </c>
       <c r="C206" t="n">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="D206" t="n">
         <v>0.6</v>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="B207" t="n">
         <v>0.71</v>
       </c>
       <c r="C207" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="D207" t="n">
         <v>0.54</v>
@@ -3253,13 +3253,13 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.27</v>
+        <v>-0.18</v>
       </c>
       <c r="B208" t="n">
         <v>-0.03</v>
       </c>
       <c r="C208" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="D208" t="n">
         <v>-0.02</v>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.47</v>
+        <v>-0.4</v>
       </c>
       <c r="B209" t="n">
         <v>-0.29</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="D209" t="n">
         <v>-0.11</v>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="B210" t="n">
         <v>0.79</v>
       </c>
       <c r="C210" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="D210" t="n">
         <v>0.35</v>
@@ -3295,13 +3295,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.02</v>
+        <v>-0.4</v>
       </c>
       <c r="B211" t="n">
         <v>-0.09</v>
       </c>
       <c r="C211" t="n">
-        <v>0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="D211" t="n">
         <v>-0.17</v>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="B212" t="n">
         <v>0.29</v>
       </c>
       <c r="C212" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="D212" t="n">
         <v>0.38</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.32</v>
+        <v>-0.17</v>
       </c>
       <c r="B213" t="n">
         <v>-0.24</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
       <c r="D213" t="n">
         <v>0.35</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.32</v>
+        <v>-0.47</v>
       </c>
       <c r="B214" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="D214" t="n">
         <v>0.2</v>
@@ -3351,13 +3351,13 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="B215" t="n">
         <v>0.59</v>
       </c>
       <c r="C215" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="D215" t="n">
         <v>0.54</v>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="B216" t="n">
         <v>-0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="D216" t="n">
         <v>-0.02</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="B217" t="n">
         <v>-0.38</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01</v>
+        <v>-0.37</v>
       </c>
       <c r="D217" t="n">
         <v>-0.72</v>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="B218" t="n">
         <v>0.24</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="D218" t="n">
         <v>0.23</v>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.06</v>
+        <v>0.23</v>
       </c>
       <c r="B219" t="n">
         <v>-0.09</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.01</v>
+        <v>0.21</v>
       </c>
       <c r="D219" t="n">
         <v>-0.32</v>
@@ -3421,13 +3421,13 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0</v>
+        <v>-0.21</v>
       </c>
       <c r="B220" t="n">
         <v>-0.03</v>
       </c>
       <c r="C220" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D220" t="n">
         <v>-0.14</v>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="B221" t="n">
         <v>-0.06</v>
       </c>
       <c r="C221" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D221" t="n">
         <v>0.51</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="B222" t="n">
         <v>0.38</v>
       </c>
       <c r="C222" t="n">
-        <v>-0</v>
+        <v>0.18</v>
       </c>
       <c r="D222" t="n">
         <v>0.51</v>
@@ -3463,13 +3463,13 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.23</v>
+        <v>-0.4</v>
       </c>
       <c r="B223" t="n">
         <v>-0.5</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.14</v>
+        <v>-0.36</v>
       </c>
       <c r="D223" t="n">
         <v>-0.26</v>
@@ -3477,13 +3477,13 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.45</v>
+        <v>-0.24</v>
       </c>
       <c r="B224" t="n">
         <v>-0.82</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.45</v>
+        <v>0.09</v>
       </c>
       <c r="D224" t="n">
         <v>-0.42</v>
